--- a/datos_empleados.xlsx
+++ b/datos_empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\OneDrive\Escritorio\red\2024\databits\people Analitics\12 Agosto - sesión 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396C1385-861E-4C83-996C-D3FD704095D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3AA298-F29C-4192-A8E1-9254EF0DE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:I3021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datos_empleados.xlsx
+++ b/datos_empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\OneDrive\Escritorio\red\2024\databits\people Analitics\12 Agosto - sesión 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3AA298-F29C-4192-A8E1-9254EF0DE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F4ACC4-AD7C-4327-949C-697599FE4E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
